--- a/V2 GOOD ONE VERSION (05-2023)/NH-Dir.B.C. u and p/K constant/Test 2 (simple solutions with t)/Numerical errors/mesh0.xlsx
+++ b/V2 GOOD ONE VERSION (05-2023)/NH-Dir.B.C. u and p/K constant/Test 2 (simple solutions with t)/Numerical errors/mesh0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="perm=1" sheetId="1" r:id="rId1"/>
@@ -100,7 +100,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,9 +152,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -192,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -238,7 +252,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -246,12 +259,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -264,6 +271,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -588,49 +607,105 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="18"/>
+      <c r="B2" s="5">
+        <v>7.8142000000000003E-2</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1.06E-2</v>
+      </c>
+      <c r="D2" s="6">
+        <v>7.9841999999999996E-2</v>
+      </c>
+      <c r="E2" s="18">
+        <v>6.0594000000000004E-3</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.10654</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.39234000000000002</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0.26838000000000001</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="18"/>
+      <c r="B3" s="5">
+        <v>3.8834E-2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2.7177E-3</v>
+      </c>
+      <c r="D3" s="6">
+        <v>4.0078999999999997E-2</v>
+      </c>
+      <c r="E3" s="18">
+        <v>1.4656000000000001E-3</v>
+      </c>
+      <c r="F3" s="5">
+        <v>3.9508000000000001E-2</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.19833999999999999</v>
+      </c>
+      <c r="H3" s="18">
+        <v>0.12928000000000001</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="18"/>
+      <c r="B4" s="5">
+        <v>1.9383999999999998E-2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>6.9015999999999999E-4</v>
+      </c>
+      <c r="D4" s="6">
+        <v>2.0055E-2</v>
+      </c>
+      <c r="E4" s="18">
+        <v>3.5624000000000002E-4</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1.4485E-2</v>
+      </c>
+      <c r="G4" s="5">
+        <v>9.9545999999999996E-2</v>
+      </c>
+      <c r="H4" s="18">
+        <v>6.3523999999999997E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="18"/>
+      <c r="B5" s="5">
+        <v>9.6878999999999993E-3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1.7395999999999999E-4</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1.0029E-2</v>
+      </c>
+      <c r="E5" s="18">
+        <v>8.8582E-5</v>
+      </c>
+      <c r="F5" s="5">
+        <v>5.2642000000000001E-3</v>
+      </c>
+      <c r="G5" s="5">
+        <v>4.9833000000000002E-2</v>
+      </c>
+      <c r="H5" s="18">
+        <v>3.1558999999999997E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -653,14 +728,14 @@
       <c r="H7" s="20"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30" t="s">
+      <c r="C8" s="26"/>
+      <c r="D8" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="30"/>
+      <c r="E8" s="27"/>
       <c r="F8" s="2" t="s">
         <v>13</v>
       </c>
@@ -675,99 +750,99 @@
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="8" t="e">
+      <c r="B9" s="8">
         <f t="shared" ref="B9:H9" si="0">B2/B3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C9" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D9" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E9" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F9" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G9" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H9" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>2.0122057990420767</v>
+      </c>
+      <c r="C9" s="8">
+        <f t="shared" si="0"/>
+        <v>3.9003569194539502</v>
+      </c>
+      <c r="D9" s="9">
+        <f t="shared" si="0"/>
+        <v>1.9921155717458021</v>
+      </c>
+      <c r="E9" s="9">
+        <f t="shared" si="0"/>
+        <v>4.1344159388646293</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="0"/>
+        <v>2.6966690290574058</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9781183825753759</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" si="0"/>
+        <v>2.0759591584158414</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="8" t="e">
+      <c r="B10" s="8">
         <f t="shared" ref="B10:H10" si="1">B3/B4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C10" s="8" t="e">
+        <v>2.0034048699958729</v>
+      </c>
+      <c r="C10" s="8">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D10" s="9" t="e">
+        <v>3.9377825431783933</v>
+      </c>
+      <c r="D10" s="9">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E10" s="9" t="e">
+        <v>1.9984542508102716</v>
+      </c>
+      <c r="E10" s="9">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F10" s="8" t="e">
+        <v>4.1140803952391645</v>
+      </c>
+      <c r="F10" s="8">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G10" s="8" t="e">
+        <v>2.7275112185018986</v>
+      </c>
+      <c r="G10" s="8">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H10" s="9" t="e">
+        <v>1.9924457034938621</v>
+      </c>
+      <c r="H10" s="9">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2.0351363264278071</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="8" t="e">
+      <c r="B11" s="8">
         <f t="shared" ref="B11:H11" si="2">B4/B5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C11" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D11" s="9" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E11" s="9" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F11" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G11" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H11" s="9" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>2.000846416664086</v>
+      </c>
+      <c r="C11" s="8">
+        <f t="shared" si="2"/>
+        <v>3.9673488158197285</v>
+      </c>
+      <c r="D11" s="9">
+        <f t="shared" si="2"/>
+        <v>1.9997008674842955</v>
+      </c>
+      <c r="E11" s="9">
+        <f t="shared" si="2"/>
+        <v>4.0215845205572238</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="2"/>
+        <v>2.7516051821739294</v>
+      </c>
+      <c r="G11" s="8">
+        <f t="shared" si="2"/>
+        <v>1.9975919571368368</v>
+      </c>
+      <c r="H11" s="9">
+        <f t="shared" si="2"/>
+        <v>2.0128647929275325</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -812,14 +887,14 @@
       <c r="A14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="30" t="s">
+      <c r="C14" s="26"/>
+      <c r="D14" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="30"/>
+      <c r="E14" s="27"/>
       <c r="F14" s="2" t="s">
         <v>18</v>
       </c>
@@ -834,93 +909,93 @@
       <c r="A15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="12" t="e">
+      <c r="B15" s="12">
         <f>LN(B9)/LN(2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C15" s="12" t="e">
+        <v>1.008777864822298</v>
+      </c>
+      <c r="C15" s="12">
         <f t="shared" ref="C15:H15" si="4">LN(C9)/LN(2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D15" s="13" t="e">
+        <v>1.9636061502223736</v>
+      </c>
+      <c r="D15" s="13">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E15" s="19" t="e">
+        <v>0.99430134717904506</v>
+      </c>
+      <c r="E15" s="19">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F15" s="12" t="e">
+        <v>2.0476835369857667</v>
+      </c>
+      <c r="F15" s="12">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G15" s="12" t="e">
+        <v>1.4311784657936435</v>
+      </c>
+      <c r="G15" s="12">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H15" s="19" t="e">
+        <v>0.98412876828295315</v>
+      </c>
+      <c r="H15" s="19">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>1.05377806097396</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B16" s="12" t="e">
+      <c r="B16" s="12">
         <f t="shared" ref="B16:H16" si="5">LN(B10)/LN(2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C16" s="12" t="e">
+        <v>1.0024540062281115</v>
+      </c>
+      <c r="C16" s="12">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D16" s="13" t="e">
+        <v>1.9773834432505399</v>
+      </c>
+      <c r="D16" s="13">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E16" s="19" t="e">
+        <v>0.99888454654639602</v>
+      </c>
+      <c r="E16" s="19">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F16" s="12" t="e">
+        <v>2.0405699865414029</v>
+      </c>
+      <c r="F16" s="12">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G16" s="12" t="e">
+        <v>1.4475851304971028</v>
+      </c>
+      <c r="G16" s="12">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H16" s="19" t="e">
+        <v>0.99454040960221102</v>
+      </c>
+      <c r="H16" s="19">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>1.0251254386555695</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B17" s="12" t="e">
+      <c r="B17" s="12">
         <f t="shared" ref="B17:H17" si="6">LN(B11)/LN(2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C17" s="12" t="e">
+        <v>1.000610431401183</v>
+      </c>
+      <c r="C17" s="12">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D17" s="13" t="e">
+        <v>1.9881752471756666</v>
+      </c>
+      <c r="D17" s="13">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E17" s="19" t="e">
+        <v>0.99978420536331181</v>
+      </c>
+      <c r="E17" s="19">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F17" s="12" t="e">
+        <v>2.0077640410928272</v>
+      </c>
+      <c r="F17" s="12">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G17" s="12" t="e">
+        <v>1.4602734778224193</v>
+      </c>
+      <c r="G17" s="12">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H17" s="19" t="e">
+        <v>0.99826191769726536</v>
+      </c>
+      <c r="H17" s="19">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>1.009250267577626</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -971,7 +1046,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D6" sqref="D6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -992,10 +1067,10 @@
       <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="16" t="s">
@@ -1004,7 +1079,7 @@
       <c r="G1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1012,49 +1087,105 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="23"/>
+      <c r="B2" s="5">
+        <v>7.8164999999999998E-2</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1.0628E-2</v>
+      </c>
+      <c r="D2" s="18">
+        <v>7.9778000000000002E-2</v>
+      </c>
+      <c r="E2" s="22">
+        <v>6.4210999999999999E-3</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.10664999999999999</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.39248</v>
+      </c>
+      <c r="H2" s="22">
+        <v>2.698E-4</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="23"/>
+      <c r="B3" s="5">
+        <v>3.8837000000000003E-2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2.7282000000000001E-3</v>
+      </c>
+      <c r="D3" s="18">
+        <v>4.0062E-2</v>
+      </c>
+      <c r="E3" s="22">
+        <v>1.6184999999999999E-3</v>
+      </c>
+      <c r="F3" s="5">
+        <v>3.9537000000000003E-2</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.19836999999999999</v>
+      </c>
+      <c r="H3" s="22">
+        <v>1.3014999999999999E-4</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="23"/>
+      <c r="B4" s="5">
+        <v>1.9384999999999999E-2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>6.9384000000000004E-4</v>
+      </c>
+      <c r="D4" s="18">
+        <v>2.0053000000000001E-2</v>
+      </c>
+      <c r="E4" s="22">
+        <v>4.1227000000000001E-4</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1.4491E-2</v>
+      </c>
+      <c r="G4" s="5">
+        <v>9.955E-2</v>
+      </c>
+      <c r="H4" s="22">
+        <v>6.3984000000000003E-5</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="23"/>
+      <c r="B5" s="5">
+        <v>9.6880000000000004E-3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1.7505999999999999E-4</v>
+      </c>
+      <c r="D5" s="18">
+        <v>1.0029E-2</v>
+      </c>
+      <c r="E5" s="22">
+        <v>1.1055E-4</v>
+      </c>
+      <c r="F5" s="5">
+        <v>5.2649999999999997E-3</v>
+      </c>
+      <c r="G5" s="5">
+        <v>4.9833000000000002E-2</v>
+      </c>
+      <c r="H5" s="22">
+        <v>3.1744E-5</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -1062,29 +1193,29 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="23"/>
+      <c r="H6" s="22"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="20"/>
       <c r="E7" s="20"/>
       <c r="H7" s="20"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30" t="s">
+      <c r="C8" s="26"/>
+      <c r="D8" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="30"/>
+      <c r="E8" s="27"/>
       <c r="F8" s="16" t="s">
         <v>13</v>
       </c>
@@ -1099,99 +1230,99 @@
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="8" t="e">
+      <c r="B9" s="8">
         <f t="shared" ref="B9:H12" si="0">B2/B3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C9" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D9" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E9" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F9" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G9" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H9" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>2.0126425831037409</v>
+      </c>
+      <c r="C9" s="8">
+        <f t="shared" si="0"/>
+        <v>3.8956088263323805</v>
+      </c>
+      <c r="D9" s="9">
+        <f t="shared" si="0"/>
+        <v>1.9913633867505367</v>
+      </c>
+      <c r="E9" s="9">
+        <f t="shared" si="0"/>
+        <v>3.9673154155081867</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="0"/>
+        <v>2.6974732529023444</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9785249785753896</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" si="0"/>
+        <v>2.0729927007299271</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C10" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D10" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E10" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F10" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G10" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H10" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B10" s="8">
+        <f t="shared" si="0"/>
+        <v>2.003456280629353</v>
+      </c>
+      <c r="C10" s="8">
+        <f t="shared" si="0"/>
+        <v>3.9320304392943619</v>
+      </c>
+      <c r="D10" s="9">
+        <f t="shared" si="0"/>
+        <v>1.9978058145913329</v>
+      </c>
+      <c r="E10" s="9">
+        <f t="shared" si="0"/>
+        <v>3.9258253086569477</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="0"/>
+        <v>2.7283831343592575</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9926670015067804</v>
+      </c>
+      <c r="H10" s="9">
+        <f t="shared" si="0"/>
+        <v>2.034102275568892</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C11" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D11" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E11" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F11" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G11" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H11" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B11" s="8">
+        <f t="shared" si="0"/>
+        <v>2.0009289843104869</v>
+      </c>
+      <c r="C11" s="8">
+        <f t="shared" si="0"/>
+        <v>3.9634411059065466</v>
+      </c>
+      <c r="D11" s="9">
+        <f t="shared" si="0"/>
+        <v>1.9995014458071594</v>
+      </c>
+      <c r="E11" s="9">
+        <f t="shared" si="0"/>
+        <v>3.7292627770239708</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="0"/>
+        <v>2.752326685660019</v>
+      </c>
+      <c r="G11" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9976722252322756</v>
+      </c>
+      <c r="H11" s="9">
+        <f t="shared" si="0"/>
+        <v>2.015625</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -1236,14 +1367,14 @@
       <c r="A14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="30" t="s">
+      <c r="C14" s="26"/>
+      <c r="D14" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="30"/>
+      <c r="E14" s="27"/>
       <c r="F14" s="16" t="s">
         <v>18</v>
       </c>
@@ -1258,93 +1389,93 @@
       <c r="A15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="12" t="e">
+      <c r="B15" s="12">
         <f>LN(B9)/LN(2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C15" s="12" t="e">
+        <v>1.0090909927428287</v>
+      </c>
+      <c r="C15" s="12">
         <f t="shared" ref="C15:H15" si="1">LN(C9)/LN(2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D15" s="24" t="e">
+        <v>1.9618488179121729</v>
+      </c>
+      <c r="D15" s="19">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E15" s="24" t="e">
+        <v>0.99375651007223254</v>
+      </c>
+      <c r="E15" s="23">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F15" s="12" t="e">
+        <v>1.9881631013652274</v>
+      </c>
+      <c r="F15" s="12">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G15" s="12" t="e">
+        <v>1.431608654580222</v>
+      </c>
+      <c r="G15" s="12">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H15" s="24" t="e">
+        <v>0.98442527922992884</v>
+      </c>
+      <c r="H15" s="23">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1.0517150365441554</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B16" s="12" t="e">
+      <c r="B16" s="12">
         <f t="shared" ref="B16:H18" si="2">LN(B10)/LN(2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C16" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D16" s="24" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E16" s="24" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F16" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G16" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H16" s="24" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1.0024910276586962</v>
+      </c>
+      <c r="C16" s="12">
+        <f t="shared" si="2"/>
+        <v>1.9752744901548527</v>
+      </c>
+      <c r="D16" s="19">
+        <f t="shared" si="2"/>
+        <v>0.99841636093770403</v>
+      </c>
+      <c r="E16" s="23">
+        <f t="shared" si="2"/>
+        <v>1.9729959772000196</v>
+      </c>
+      <c r="F16" s="12">
+        <f t="shared" si="2"/>
+        <v>1.4480462496511175</v>
+      </c>
+      <c r="G16" s="12">
+        <f t="shared" si="2"/>
+        <v>0.99470063871980841</v>
+      </c>
+      <c r="H16" s="23">
+        <f t="shared" si="2"/>
+        <v>1.0243922203687075</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B17" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C17" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D17" s="24" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E17" s="24" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F17" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G17" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H17" s="24" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="B17" s="12">
+        <f t="shared" si="2"/>
+        <v>1.0006699649442139</v>
+      </c>
+      <c r="C17" s="12">
+        <f t="shared" si="2"/>
+        <v>1.9867535390671796</v>
+      </c>
+      <c r="D17" s="19">
+        <f t="shared" si="2"/>
+        <v>0.9996403243378722</v>
+      </c>
+      <c r="E17" s="23">
+        <f t="shared" si="2"/>
+        <v>1.8988904580802899</v>
+      </c>
+      <c r="F17" s="12">
+        <f t="shared" si="2"/>
+        <v>1.4606517199708773</v>
+      </c>
+      <c r="G17" s="12">
+        <f t="shared" si="2"/>
+        <v>0.99831988752251899</v>
+      </c>
+      <c r="H17" s="23">
+        <f t="shared" si="2"/>
+        <v>1.0112272554232542</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -1357,11 +1488,11 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D18" s="24" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E18" s="24" t="e">
+      <c r="D18" s="19" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E18" s="23" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -1373,7 +1504,7 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="24" t="e">
+      <c r="H18" s="23" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -1395,7 +1526,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1416,10 +1547,10 @@
       <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="29" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="16" t="s">
@@ -1428,7 +1559,7 @@
       <c r="G1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="29" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1436,49 +1567,105 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="27"/>
+      <c r="B2" s="5">
+        <v>7.8164999999999998E-2</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1.0628E-2</v>
+      </c>
+      <c r="D2" s="18">
+        <v>7.9810000000000006E-2</v>
+      </c>
+      <c r="E2" s="30">
+        <v>6.8120000000000003E-3</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.10664999999999999</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.39249000000000001</v>
+      </c>
+      <c r="H2" s="30">
+        <v>2.7020999999999998E-7</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="27"/>
+      <c r="B3" s="5">
+        <v>3.8837000000000003E-2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2.7282999999999999E-3</v>
+      </c>
+      <c r="D3" s="18">
+        <v>4.0127000000000003E-2</v>
+      </c>
+      <c r="E3" s="30">
+        <v>2.7939000000000002E-3</v>
+      </c>
+      <c r="F3" s="5">
+        <v>3.9537000000000003E-2</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.19839999999999999</v>
+      </c>
+      <c r="H3" s="30">
+        <v>1.3183999999999999E-7</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="27"/>
+      <c r="B4" s="5">
+        <v>1.9384999999999999E-2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>6.9388999999999996E-4</v>
+      </c>
+      <c r="D4" s="18">
+        <v>2.018E-2</v>
+      </c>
+      <c r="E4" s="30">
+        <v>2.3027E-3</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1.4491E-2</v>
+      </c>
+      <c r="G4" s="5">
+        <v>9.9600999999999995E-2</v>
+      </c>
+      <c r="H4" s="30">
+        <v>7.0505999999999996E-8</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="27"/>
+      <c r="B5" s="5">
+        <v>9.6880000000000004E-3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1.7508000000000001E-4</v>
+      </c>
+      <c r="D5" s="18">
+        <v>1.0274999999999999E-2</v>
+      </c>
+      <c r="E5" s="24">
+        <v>2.238E-3</v>
+      </c>
+      <c r="F5" s="5">
+        <v>5.2649999999999997E-3</v>
+      </c>
+      <c r="G5" s="5">
+        <v>4.9933999999999999E-2</v>
+      </c>
+      <c r="H5" s="30">
+        <v>5.2094000000000003E-8</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -1486,11 +1673,11 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="27"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="24"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="27"/>
+      <c r="H6" s="30"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -1501,14 +1688,14 @@
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30" t="s">
+      <c r="C8" s="26"/>
+      <c r="D8" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="30"/>
+      <c r="E8" s="27"/>
       <c r="F8" s="16" t="s">
         <v>13</v>
       </c>
@@ -1523,99 +1710,99 @@
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="8" t="e">
+      <c r="B9" s="8">
         <f t="shared" ref="B9:H12" si="0">B2/B3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C9" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D9" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E9" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F9" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G9" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H9" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>2.0126425831037409</v>
+      </c>
+      <c r="C9" s="8">
+        <f t="shared" si="0"/>
+        <v>3.8954660411245099</v>
+      </c>
+      <c r="D9" s="9">
+        <f t="shared" si="0"/>
+        <v>1.9889351309592045</v>
+      </c>
+      <c r="E9" s="9">
+        <f t="shared" si="0"/>
+        <v>2.438168867890762</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="0"/>
+        <v>2.6974732529023444</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9782762096774194</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" si="0"/>
+        <v>2.0495297330097086</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C10" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D10" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E10" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F10" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G10" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H10" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B10" s="8">
+        <f t="shared" si="0"/>
+        <v>2.003456280629353</v>
+      </c>
+      <c r="C10" s="8">
+        <f t="shared" si="0"/>
+        <v>3.9318912219516062</v>
+      </c>
+      <c r="D10" s="9">
+        <f t="shared" si="0"/>
+        <v>1.9884539147670963</v>
+      </c>
+      <c r="E10" s="9">
+        <f t="shared" si="0"/>
+        <v>1.2133148043600992</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="0"/>
+        <v>2.7283831343592575</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9919478720093171</v>
+      </c>
+      <c r="H10" s="9">
+        <f t="shared" si="0"/>
+        <v>1.869911780557683</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C11" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D11" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E11" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F11" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G11" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H11" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B11" s="8">
+        <f t="shared" si="0"/>
+        <v>2.0009289843104869</v>
+      </c>
+      <c r="C11" s="8">
+        <f t="shared" si="0"/>
+        <v>3.9632739319168375</v>
+      </c>
+      <c r="D11" s="9">
+        <f t="shared" si="0"/>
+        <v>1.9639902676399028</v>
+      </c>
+      <c r="E11" s="9">
+        <f t="shared" si="0"/>
+        <v>1.0289097408400358</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="0"/>
+        <v>2.752326685660019</v>
+      </c>
+      <c r="G11" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9946529418832859</v>
+      </c>
+      <c r="H11" s="9">
+        <f t="shared" si="0"/>
+        <v>1.3534380158943446</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -1660,14 +1847,14 @@
       <c r="A14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="30" t="s">
+      <c r="C14" s="26"/>
+      <c r="D14" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="30"/>
+      <c r="E14" s="27"/>
       <c r="F14" s="16" t="s">
         <v>18</v>
       </c>
@@ -1682,93 +1869,93 @@
       <c r="A15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="12" t="e">
+      <c r="B15" s="12">
         <f>LN(B9)/LN(2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C15" s="12" t="e">
+        <v>1.0090909927428287</v>
+      </c>
+      <c r="C15" s="12">
         <f t="shared" ref="C15:H15" si="1">LN(C9)/LN(2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D15" s="24" t="e">
+        <v>1.9617959380426211</v>
+      </c>
+      <c r="D15" s="19">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E15" s="25" t="e">
+        <v>0.991996223497146</v>
+      </c>
+      <c r="E15" s="31">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F15" s="12" t="e">
+        <v>1.2857980506634688</v>
+      </c>
+      <c r="F15" s="12">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G15" s="12" t="e">
+        <v>1.431608654580222</v>
+      </c>
+      <c r="G15" s="12">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H15" s="25" t="e">
+        <v>0.98424387124968071</v>
+      </c>
+      <c r="H15" s="31">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1.0352929196406628</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B16" s="12" t="e">
+      <c r="B16" s="12">
         <f t="shared" ref="B16:H18" si="2">LN(B10)/LN(2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C16" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D16" s="24" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E16" s="25" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F16" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G16" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H16" s="25" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1.0024910276586962</v>
+      </c>
+      <c r="C16" s="12">
+        <f t="shared" si="2"/>
+        <v>1.9752234092365344</v>
+      </c>
+      <c r="D16" s="19">
+        <f t="shared" si="2"/>
+        <v>0.99164712603177074</v>
+      </c>
+      <c r="E16" s="31">
+        <f t="shared" si="2"/>
+        <v>0.27895391794849311</v>
+      </c>
+      <c r="F16" s="12">
+        <f t="shared" si="2"/>
+        <v>1.4480462496511175</v>
+      </c>
+      <c r="G16" s="12">
+        <f t="shared" si="2"/>
+        <v>0.99417989350154023</v>
+      </c>
+      <c r="H16" s="31">
+        <f t="shared" si="2"/>
+        <v>0.9029702076775219</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B17" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C17" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D17" s="24" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E17" s="25" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F17" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G17" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H17" s="25" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="B17" s="12">
+        <f t="shared" si="2"/>
+        <v>1.0006699649442139</v>
+      </c>
+      <c r="C17" s="12">
+        <f t="shared" si="2"/>
+        <v>1.9866926863470287</v>
+      </c>
+      <c r="D17" s="19">
+        <f t="shared" si="2"/>
+        <v>0.97378778053731208</v>
+      </c>
+      <c r="E17" s="31">
+        <f t="shared" si="2"/>
+        <v>4.1116430090186999E-2</v>
+      </c>
+      <c r="F17" s="12">
+        <f t="shared" si="2"/>
+        <v>1.4606517199708773</v>
+      </c>
+      <c r="G17" s="12">
+        <f t="shared" si="2"/>
+        <v>0.99613774766028784</v>
+      </c>
+      <c r="H17" s="31">
+        <f t="shared" si="2"/>
+        <v>0.43662881720968189</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -1781,11 +1968,11 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D18" s="24" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E18" s="25" t="e">
+      <c r="D18" s="19" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E18" s="31" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -1797,13 +1984,13 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="25" t="e">
+      <c r="H18" s="31" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="H19" s="28"/>
+      <c r="H19" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1819,10 +2006,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D8" sqref="D8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1843,10 +2030,10 @@
       <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="29" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="16" t="s">
@@ -1855,7 +2042,7 @@
       <c r="G1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="29" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1863,49 +2050,105 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="27"/>
+      <c r="B2" s="5">
+        <v>7.8164999999999998E-2</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1.0628E-2</v>
+      </c>
+      <c r="D2" s="18">
+        <v>7.9811000000000007E-2</v>
+      </c>
+      <c r="E2" s="30">
+        <v>6.8148000000000002E-3</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.10664999999999999</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.39249000000000001</v>
+      </c>
+      <c r="H2" s="30">
+        <v>2.7022000000000002E-10</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="27"/>
+      <c r="B3" s="5">
+        <v>3.8837000000000003E-2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2.7282999999999999E-3</v>
+      </c>
+      <c r="D3" s="18">
+        <v>4.0127999999999997E-2</v>
+      </c>
+      <c r="E3" s="30">
+        <v>2.8070999999999999E-3</v>
+      </c>
+      <c r="F3" s="5">
+        <v>3.9537000000000003E-2</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.19839999999999999</v>
+      </c>
+      <c r="H3" s="30">
+        <v>1.3187000000000001E-10</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="27"/>
+      <c r="B4" s="5">
+        <v>1.9384999999999999E-2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>6.9388999999999996E-4</v>
+      </c>
+      <c r="D4" s="18">
+        <v>2.0184000000000001E-2</v>
+      </c>
+      <c r="E4" s="30">
+        <v>2.3341999999999998E-3</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1.4491E-2</v>
+      </c>
+      <c r="G4" s="5">
+        <v>9.9602999999999997E-2</v>
+      </c>
+      <c r="H4" s="30">
+        <v>7.0682E-11</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="27"/>
+      <c r="B5" s="5">
+        <v>9.6880000000000004E-3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1.7508000000000001E-4</v>
+      </c>
+      <c r="D5" s="18">
+        <v>1.0289E-2</v>
+      </c>
+      <c r="E5" s="30">
+        <v>2.3013E-3</v>
+      </c>
+      <c r="F5" s="5">
+        <v>5.2649999999999997E-3</v>
+      </c>
+      <c r="G5" s="5">
+        <v>4.9938999999999997E-2</v>
+      </c>
+      <c r="H5" s="30">
+        <v>5.3026999999999997E-11</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -1913,29 +2156,29 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="27"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="30"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="27"/>
+      <c r="H6" s="30"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="E7" s="33"/>
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30" t="s">
+      <c r="C8" s="26"/>
+      <c r="D8" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="30"/>
+      <c r="E8" s="27"/>
       <c r="F8" s="16" t="s">
         <v>13</v>
       </c>
@@ -1950,99 +2193,99 @@
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="8" t="e">
+      <c r="B9" s="8">
         <f t="shared" ref="B9:H12" si="0">B2/B3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C9" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D9" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E9" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F9" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G9" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H9" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>2.0126425831037409</v>
+      </c>
+      <c r="C9" s="8">
+        <f t="shared" si="0"/>
+        <v>3.8954660411245099</v>
+      </c>
+      <c r="D9" s="9">
+        <f t="shared" si="0"/>
+        <v>1.9889104864433815</v>
+      </c>
+      <c r="E9" s="9">
+        <f t="shared" si="0"/>
+        <v>2.4277011862776532</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="0"/>
+        <v>2.6974732529023444</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9782762096774194</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" si="0"/>
+        <v>2.049139303859862</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C10" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D10" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E10" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F10" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G10" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H10" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B10" s="8">
+        <f t="shared" si="0"/>
+        <v>2.003456280629353</v>
+      </c>
+      <c r="C10" s="8">
+        <f t="shared" si="0"/>
+        <v>3.9318912219516062</v>
+      </c>
+      <c r="D10" s="9">
+        <f t="shared" si="0"/>
+        <v>1.9881093935790723</v>
+      </c>
+      <c r="E10" s="9">
+        <f t="shared" si="0"/>
+        <v>1.2025961785622483</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="0"/>
+        <v>2.7283831343592575</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9919078742608154</v>
+      </c>
+      <c r="H10" s="9">
+        <f t="shared" si="0"/>
+        <v>1.8656800882827311</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C11" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D11" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E11" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F11" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G11" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H11" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B11" s="8">
+        <f t="shared" si="0"/>
+        <v>2.0009289843104869</v>
+      </c>
+      <c r="C11" s="8">
+        <f t="shared" si="0"/>
+        <v>3.9632739319168375</v>
+      </c>
+      <c r="D11" s="9">
+        <f t="shared" si="0"/>
+        <v>1.9617066770337255</v>
+      </c>
+      <c r="E11" s="9">
+        <f t="shared" si="0"/>
+        <v>1.0142962673271627</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="0"/>
+        <v>2.752326685660019</v>
+      </c>
+      <c r="G11" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9944932818038006</v>
+      </c>
+      <c r="H11" s="9">
+        <f t="shared" si="0"/>
+        <v>1.3329435947724744</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -2087,14 +2330,14 @@
       <c r="A14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="30" t="s">
+      <c r="C14" s="26"/>
+      <c r="D14" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="30"/>
+      <c r="E14" s="27"/>
       <c r="F14" s="16" t="s">
         <v>18</v>
       </c>
@@ -2109,93 +2352,93 @@
       <c r="A15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="12" t="e">
+      <c r="B15" s="12">
         <f>LN(B9)/LN(2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C15" s="12" t="e">
+        <v>1.0090909927428287</v>
+      </c>
+      <c r="C15" s="12">
         <f t="shared" ref="C15:H15" si="1">LN(C9)/LN(2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D15" s="24" t="e">
+        <v>1.9617959380426211</v>
+      </c>
+      <c r="D15" s="19">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E15" s="25" t="e">
+        <v>0.99197834722733425</v>
+      </c>
+      <c r="E15" s="31">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F15" s="12" t="e">
+        <v>1.2795908583295534</v>
+      </c>
+      <c r="F15" s="12">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G15" s="12" t="e">
+        <v>1.431608654580222</v>
+      </c>
+      <c r="G15" s="12">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H15" s="25" t="e">
+        <v>0.98424387124968071</v>
+      </c>
+      <c r="H15" s="31">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1.0350180644645368</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B16" s="12" t="e">
+      <c r="B16" s="12">
         <f t="shared" ref="B16:H18" si="2">LN(B10)/LN(2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C16" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D16" s="24" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E16" s="25" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F16" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G16" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H16" s="25" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1.0024910276586962</v>
+      </c>
+      <c r="C16" s="12">
+        <f t="shared" si="2"/>
+        <v>1.9752234092365344</v>
+      </c>
+      <c r="D16" s="19">
+        <f t="shared" si="2"/>
+        <v>0.99139714182573846</v>
+      </c>
+      <c r="E16" s="31">
+        <f t="shared" si="2"/>
+        <v>0.26615227926440232</v>
+      </c>
+      <c r="F16" s="12">
+        <f t="shared" si="2"/>
+        <v>1.4480462496511175</v>
+      </c>
+      <c r="G16" s="12">
+        <f t="shared" si="2"/>
+        <v>0.99415092430331264</v>
+      </c>
+      <c r="H16" s="31">
+        <f t="shared" si="2"/>
+        <v>0.899701625730984</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B17" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C17" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D17" s="24" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E17" s="25" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F17" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G17" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H17" s="25" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="B17" s="12">
+        <f t="shared" si="2"/>
+        <v>1.0006699649442139</v>
+      </c>
+      <c r="C17" s="12">
+        <f t="shared" si="2"/>
+        <v>1.9866926863470287</v>
+      </c>
+      <c r="D17" s="19">
+        <f t="shared" si="2"/>
+        <v>0.97210933960772294</v>
+      </c>
+      <c r="E17" s="31">
+        <f t="shared" si="2"/>
+        <v>2.0479112868100557E-2</v>
+      </c>
+      <c r="F17" s="12">
+        <f t="shared" si="2"/>
+        <v>1.4606517199708773</v>
+      </c>
+      <c r="G17" s="12">
+        <f t="shared" si="2"/>
+        <v>0.99602226389904758</v>
+      </c>
+      <c r="H17" s="31">
+        <f t="shared" si="2"/>
+        <v>0.41461573221701165</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -2208,11 +2451,11 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D18" s="24" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E18" s="25" t="e">
+      <c r="D18" s="19" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E18" s="31" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -2224,10 +2467,13 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="25" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="H18" s="31" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D19" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2244,8 +2490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2266,10 +2512,10 @@
       <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="29" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="16" t="s">
@@ -2278,7 +2524,7 @@
       <c r="G1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="29" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2286,49 +2532,105 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="27"/>
+      <c r="B2" s="5">
+        <v>7.8164999999999998E-2</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1.0628E-2</v>
+      </c>
+      <c r="D2" s="18">
+        <v>7.9811000000000007E-2</v>
+      </c>
+      <c r="E2" s="30">
+        <v>6.8148000000000002E-3</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.10664999999999999</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.39249000000000001</v>
+      </c>
+      <c r="H2" s="30">
+        <v>2.7021999999999998E-13</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="27"/>
+      <c r="B3" s="5">
+        <v>3.8837000000000003E-2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2.7282999999999999E-3</v>
+      </c>
+      <c r="D3" s="18">
+        <v>4.0127999999999997E-2</v>
+      </c>
+      <c r="E3" s="30">
+        <v>2.8070999999999999E-3</v>
+      </c>
+      <c r="F3" s="5">
+        <v>3.9537000000000003E-2</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.19839999999999999</v>
+      </c>
+      <c r="H3" s="30">
+        <v>1.3187E-13</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="27"/>
+      <c r="B4" s="5">
+        <v>1.9384999999999999E-2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>6.9388999999999996E-4</v>
+      </c>
+      <c r="D4" s="18">
+        <v>2.0184000000000001E-2</v>
+      </c>
+      <c r="E4" s="30">
+        <v>2.3343000000000001E-3</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1.4491E-2</v>
+      </c>
+      <c r="G4" s="5">
+        <v>9.9602999999999997E-2</v>
+      </c>
+      <c r="H4" s="30">
+        <v>7.0682999999999998E-14</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="27"/>
+      <c r="B5" s="5">
+        <v>9.6880000000000004E-3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1.7508000000000001E-4</v>
+      </c>
+      <c r="D5" s="18">
+        <v>1.0289E-2</v>
+      </c>
+      <c r="E5" s="30">
+        <v>2.3013999999999999E-3</v>
+      </c>
+      <c r="F5" s="5">
+        <v>5.2649999999999997E-3</v>
+      </c>
+      <c r="G5" s="5">
+        <v>4.9938999999999997E-2</v>
+      </c>
+      <c r="H5" s="30">
+        <v>5.3028000000000003E-14</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -2336,29 +2638,29 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="27"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="30"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="27"/>
+      <c r="H6" s="30"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="20"/>
       <c r="E7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="H7" s="33"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30" t="s">
+      <c r="C8" s="26"/>
+      <c r="D8" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="30"/>
+      <c r="E8" s="27"/>
       <c r="F8" s="16" t="s">
         <v>13</v>
       </c>
@@ -2373,99 +2675,99 @@
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="8" t="e">
+      <c r="B9" s="8">
         <f t="shared" ref="B9:H12" si="0">B2/B3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C9" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D9" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E9" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F9" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G9" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H9" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>2.0126425831037409</v>
+      </c>
+      <c r="C9" s="8">
+        <f t="shared" si="0"/>
+        <v>3.8954660411245099</v>
+      </c>
+      <c r="D9" s="9">
+        <f t="shared" si="0"/>
+        <v>1.9889104864433815</v>
+      </c>
+      <c r="E9" s="9">
+        <f t="shared" si="0"/>
+        <v>2.4277011862776532</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="0"/>
+        <v>2.6974732529023444</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9782762096774194</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" si="0"/>
+        <v>2.049139303859862</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C10" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D10" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E10" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F10" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G10" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H10" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B10" s="8">
+        <f t="shared" si="0"/>
+        <v>2.003456280629353</v>
+      </c>
+      <c r="C10" s="8">
+        <f t="shared" si="0"/>
+        <v>3.9318912219516062</v>
+      </c>
+      <c r="D10" s="9">
+        <f t="shared" si="0"/>
+        <v>1.9881093935790723</v>
+      </c>
+      <c r="E10" s="9">
+        <f t="shared" si="0"/>
+        <v>1.2025446600693996</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="0"/>
+        <v>2.7283831343592575</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9919078742608154</v>
+      </c>
+      <c r="H10" s="9">
+        <f t="shared" si="0"/>
+        <v>1.8656536932501451</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C11" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D11" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E11" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F11" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G11" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H11" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B11" s="8">
+        <f t="shared" si="0"/>
+        <v>2.0009289843104869</v>
+      </c>
+      <c r="C11" s="8">
+        <f t="shared" si="0"/>
+        <v>3.9632739319168375</v>
+      </c>
+      <c r="D11" s="9">
+        <f t="shared" si="0"/>
+        <v>1.9617066770337255</v>
+      </c>
+      <c r="E11" s="9">
+        <f t="shared" si="0"/>
+        <v>1.0142956461284436</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="0"/>
+        <v>2.752326685660019</v>
+      </c>
+      <c r="G11" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9944932818038006</v>
+      </c>
+      <c r="H11" s="9">
+        <f t="shared" si="0"/>
+        <v>1.3329373161348721</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -2510,14 +2812,14 @@
       <c r="A14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="30" t="s">
+      <c r="C14" s="26"/>
+      <c r="D14" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="30"/>
+      <c r="E14" s="27"/>
       <c r="F14" s="16" t="s">
         <v>18</v>
       </c>
@@ -2532,93 +2834,93 @@
       <c r="A15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="12" t="e">
+      <c r="B15" s="12">
         <f>LN(B9)/LN(2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C15" s="12" t="e">
+        <v>1.0090909927428287</v>
+      </c>
+      <c r="C15" s="12">
         <f t="shared" ref="C15:H15" si="1">LN(C9)/LN(2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D15" s="24" t="e">
+        <v>1.9617959380426211</v>
+      </c>
+      <c r="D15" s="19">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E15" s="25" t="e">
+        <v>0.99197834722733425</v>
+      </c>
+      <c r="E15" s="31">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F15" s="12" t="e">
+        <v>1.2795908583295534</v>
+      </c>
+      <c r="F15" s="12">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G15" s="12" t="e">
+        <v>1.431608654580222</v>
+      </c>
+      <c r="G15" s="12">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H15" s="25" t="e">
+        <v>0.98424387124968071</v>
+      </c>
+      <c r="H15" s="31">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1.0350180644645368</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B16" s="12" t="e">
+      <c r="B16" s="12">
         <f t="shared" ref="B16:H18" si="2">LN(B10)/LN(2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C16" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D16" s="24" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E16" s="25" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F16" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G16" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H16" s="25" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1.0024910276586962</v>
+      </c>
+      <c r="C16" s="12">
+        <f t="shared" si="2"/>
+        <v>1.9752234092365344</v>
+      </c>
+      <c r="D16" s="19">
+        <f t="shared" si="2"/>
+        <v>0.99139714182573846</v>
+      </c>
+      <c r="E16" s="31">
+        <f t="shared" si="2"/>
+        <v>0.26609047375766076</v>
+      </c>
+      <c r="F16" s="12">
+        <f t="shared" si="2"/>
+        <v>1.4480462496511175</v>
+      </c>
+      <c r="G16" s="12">
+        <f t="shared" si="2"/>
+        <v>0.99415092430331264</v>
+      </c>
+      <c r="H16" s="31">
+        <f t="shared" si="2"/>
+        <v>0.89968121480832397</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B17" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C17" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D17" s="24" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E17" s="25" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F17" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G17" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H17" s="25" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="B17" s="12">
+        <f t="shared" si="2"/>
+        <v>1.0006699649442139</v>
+      </c>
+      <c r="C17" s="12">
+        <f t="shared" si="2"/>
+        <v>1.9866926863470287</v>
+      </c>
+      <c r="D17" s="19">
+        <f t="shared" si="2"/>
+        <v>0.97210933960772294</v>
+      </c>
+      <c r="E17" s="31">
+        <f t="shared" si="2"/>
+        <v>2.04782292992511E-2</v>
+      </c>
+      <c r="F17" s="12">
+        <f t="shared" si="2"/>
+        <v>1.4606517199708773</v>
+      </c>
+      <c r="G17" s="12">
+        <f t="shared" si="2"/>
+        <v>0.99602226389904758</v>
+      </c>
+      <c r="H17" s="31">
+        <f t="shared" si="2"/>
+        <v>0.41460893659512527</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -2631,11 +2933,11 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D18" s="24" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E18" s="25" t="e">
+      <c r="D18" s="19" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E18" s="31" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -2647,7 +2949,7 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="25" t="e">
+      <c r="H18" s="31" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>

--- a/V2 GOOD ONE VERSION (05-2023)/NH-Dir.B.C. u and p/K constant/Test 2 (simple solutions with t)/Numerical errors/mesh0.xlsx
+++ b/V2 GOOD ONE VERSION (05-2023)/NH-Dir.B.C. u and p/K constant/Test 2 (simple solutions with t)/Numerical errors/mesh0.xlsx
@@ -100,7 +100,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,21 +130,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
@@ -169,6 +154,29 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -206,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -252,7 +260,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -261,28 +274,30 @@
     <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -711,13 +726,27 @@
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="18"/>
+      <c r="B6" s="5">
+        <v>4.8434000000000003E-3</v>
+      </c>
+      <c r="C6" s="5">
+        <v>4.3676E-5</v>
+      </c>
+      <c r="D6" s="6">
+        <v>5.0149000000000001E-3</v>
+      </c>
+      <c r="E6" s="18">
+        <v>2.2187E-5</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1.8974E-3</v>
+      </c>
+      <c r="G6" s="5">
+        <v>2.4926E-2</v>
+      </c>
+      <c r="H6" s="18">
+        <v>1.5758000000000001E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -728,14 +757,14 @@
       <c r="H7" s="20"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="27" t="s">
+      <c r="C8" s="29"/>
+      <c r="D8" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="27"/>
+      <c r="E8" s="30"/>
       <c r="F8" s="2" t="s">
         <v>13</v>
       </c>
@@ -849,33 +878,33 @@
       <c r="A12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="8" t="e">
+      <c r="B12" s="8">
         <f t="shared" ref="B12:H12" si="3">B5/B6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C12" s="8" t="e">
+        <v>2.0002271131849523</v>
+      </c>
+      <c r="C12" s="8">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D12" s="9" t="e">
+        <v>3.9829654730286657</v>
+      </c>
+      <c r="D12" s="9">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E12" s="9" t="e">
+        <v>1.9998404753833574</v>
+      </c>
+      <c r="E12" s="9">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F12" s="8" t="e">
+        <v>3.9925181412538877</v>
+      </c>
+      <c r="F12" s="8">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G12" s="8" t="e">
+        <v>2.7744281648571731</v>
+      </c>
+      <c r="G12" s="8">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H12" s="9" t="e">
+        <v>1.9992377437214155</v>
+      </c>
+      <c r="H12" s="9">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>2.002728772686889</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -887,14 +916,14 @@
       <c r="A14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="27" t="s">
+      <c r="C14" s="29"/>
+      <c r="D14" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="27"/>
+      <c r="E14" s="30"/>
       <c r="F14" s="2" t="s">
         <v>18</v>
       </c>
@@ -1000,33 +1029,33 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="14"/>
-      <c r="B18" s="12" t="e">
+      <c r="B18" s="12">
         <f t="shared" ref="B18:H18" si="7">LN(B12)/LN(2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C18" s="12" t="e">
+        <v>1.0001638182316814</v>
+      </c>
+      <c r="C18" s="12">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D18" s="13" t="e">
+        <v>1.993842973524288</v>
+      </c>
+      <c r="D18" s="13">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E18" s="19" t="e">
+        <v>0.99988492272385943</v>
+      </c>
+      <c r="E18" s="19">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F18" s="12" t="e">
+        <v>1.99729896298718</v>
+      </c>
+      <c r="F18" s="12">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G18" s="12" t="e">
+        <v>1.4721904493952533</v>
+      </c>
+      <c r="G18" s="12">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H18" s="19" t="e">
+        <v>0.99945004351489553</v>
+      </c>
+      <c r="H18" s="19">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>1.0019670518071719</v>
       </c>
     </row>
   </sheetData>
@@ -1046,7 +1075,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D7"/>
+      <selection activeCell="H15" activeCellId="1" sqref="H1:H6 H15:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1067,10 +1096,10 @@
       <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="31" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="16" t="s">
@@ -1079,7 +1108,7 @@
       <c r="G1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="33" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1096,7 +1125,7 @@
       <c r="D2" s="18">
         <v>7.9778000000000002E-2</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="21">
         <v>6.4210999999999999E-3</v>
       </c>
       <c r="F2" s="5">
@@ -1105,7 +1134,7 @@
       <c r="G2" s="5">
         <v>0.39248</v>
       </c>
-      <c r="H2" s="22">
+      <c r="H2" s="18">
         <v>2.698E-4</v>
       </c>
     </row>
@@ -1122,7 +1151,7 @@
       <c r="D3" s="18">
         <v>4.0062E-2</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="21">
         <v>1.6184999999999999E-3</v>
       </c>
       <c r="F3" s="5">
@@ -1131,7 +1160,7 @@
       <c r="G3" s="5">
         <v>0.19836999999999999</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="18">
         <v>1.3014999999999999E-4</v>
       </c>
     </row>
@@ -1148,7 +1177,7 @@
       <c r="D4" s="18">
         <v>2.0053000000000001E-2</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="21">
         <v>4.1227000000000001E-4</v>
       </c>
       <c r="F4" s="5">
@@ -1157,7 +1186,7 @@
       <c r="G4" s="5">
         <v>9.955E-2</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="18">
         <v>6.3984000000000003E-5</v>
       </c>
     </row>
@@ -1174,7 +1203,7 @@
       <c r="D5" s="18">
         <v>1.0029E-2</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="21">
         <v>1.1055E-4</v>
       </c>
       <c r="F5" s="5">
@@ -1183,7 +1212,7 @@
       <c r="G5" s="5">
         <v>4.9833000000000002E-2</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="18">
         <v>3.1744E-5</v>
       </c>
     </row>
@@ -1191,13 +1220,27 @@
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="22"/>
+      <c r="B6" s="5">
+        <v>4.8434000000000003E-3</v>
+      </c>
+      <c r="C6" s="5">
+        <v>4.3974000000000003E-5</v>
+      </c>
+      <c r="D6" s="18">
+        <v>5.0149000000000001E-3</v>
+      </c>
+      <c r="E6" s="21">
+        <v>3.523E-5</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1.8975000000000001E-3</v>
+      </c>
+      <c r="G6" s="5">
+        <v>2.4926E-2</v>
+      </c>
+      <c r="H6" s="18">
+        <v>1.5815999999999999E-5</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -1208,14 +1251,14 @@
       <c r="H7" s="20"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="27" t="s">
+      <c r="C8" s="29"/>
+      <c r="D8" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="27"/>
+      <c r="E8" s="30"/>
       <c r="F8" s="16" t="s">
         <v>13</v>
       </c>
@@ -1329,33 +1372,33 @@
       <c r="A12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C12" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D12" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E12" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F12" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G12" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H12" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B12" s="8">
+        <f t="shared" si="0"/>
+        <v>2.0002477598381301</v>
+      </c>
+      <c r="C12" s="8">
+        <f t="shared" si="0"/>
+        <v>3.9809887660890522</v>
+      </c>
+      <c r="D12" s="9">
+        <f t="shared" si="0"/>
+        <v>1.9998404753833574</v>
+      </c>
+      <c r="E12" s="9">
+        <f t="shared" si="0"/>
+        <v>3.1379506102753338</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="0"/>
+        <v>2.7747035573122525</v>
+      </c>
+      <c r="G12" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9992377437214155</v>
+      </c>
+      <c r="H12" s="9">
+        <f t="shared" si="0"/>
+        <v>2.0070814365199801</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -1367,14 +1410,14 @@
       <c r="A14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="27" t="s">
+      <c r="C14" s="29"/>
+      <c r="D14" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="27"/>
+      <c r="E14" s="30"/>
       <c r="F14" s="16" t="s">
         <v>18</v>
       </c>
@@ -1401,7 +1444,7 @@
         <f t="shared" si="1"/>
         <v>0.99375651007223254</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="32">
         <f t="shared" si="1"/>
         <v>1.9881631013652274</v>
       </c>
@@ -1413,7 +1456,7 @@
         <f t="shared" si="1"/>
         <v>0.98442527922992884</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="19">
         <f t="shared" si="1"/>
         <v>1.0517150365441554</v>
       </c>
@@ -1431,7 +1474,7 @@
         <f t="shared" si="2"/>
         <v>0.99841636093770403</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="32">
         <f t="shared" si="2"/>
         <v>1.9729959772000196</v>
       </c>
@@ -1443,7 +1486,7 @@
         <f t="shared" si="2"/>
         <v>0.99470063871980841</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="19">
         <f t="shared" si="2"/>
         <v>1.0243922203687075</v>
       </c>
@@ -1461,7 +1504,7 @@
         <f t="shared" si="2"/>
         <v>0.9996403243378722</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="32">
         <f t="shared" si="2"/>
         <v>1.8988904580802899</v>
       </c>
@@ -1473,40 +1516,40 @@
         <f t="shared" si="2"/>
         <v>0.99831988752251899</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="19">
         <f t="shared" si="2"/>
         <v>1.0112272554232542</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="14"/>
-      <c r="B18" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C18" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D18" s="19" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E18" s="23" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F18" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G18" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H18" s="23" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="B18" s="12">
+        <f t="shared" si="2"/>
+        <v>1.000178709875847</v>
+      </c>
+      <c r="C18" s="12">
+        <f t="shared" si="2"/>
+        <v>1.9931268003088201</v>
+      </c>
+      <c r="D18" s="19">
+        <f t="shared" si="2"/>
+        <v>0.99988492272385943</v>
+      </c>
+      <c r="E18" s="32">
+        <f t="shared" si="2"/>
+        <v>1.6498226452086246</v>
+      </c>
+      <c r="F18" s="12">
+        <f t="shared" si="2"/>
+        <v>1.4723336456102503</v>
+      </c>
+      <c r="G18" s="12">
+        <f t="shared" si="2"/>
+        <v>0.99945004351489553</v>
+      </c>
+      <c r="H18" s="19">
+        <f t="shared" si="2"/>
+        <v>1.0050991546576675</v>
       </c>
     </row>
   </sheetData>
@@ -1522,6 +1565,503 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5">
+        <v>7.8164999999999998E-2</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1.0628E-2</v>
+      </c>
+      <c r="D2" s="35">
+        <v>7.9810000000000006E-2</v>
+      </c>
+      <c r="E2" s="25">
+        <v>6.8120000000000003E-3</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.10664999999999999</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.39249000000000001</v>
+      </c>
+      <c r="H2" s="25">
+        <v>2.7020999999999998E-7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5">
+        <v>3.8837000000000003E-2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2.7282999999999999E-3</v>
+      </c>
+      <c r="D3" s="35">
+        <v>4.0127000000000003E-2</v>
+      </c>
+      <c r="E3" s="25">
+        <v>2.7939000000000002E-3</v>
+      </c>
+      <c r="F3" s="5">
+        <v>3.9537000000000003E-2</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.19839999999999999</v>
+      </c>
+      <c r="H3" s="25">
+        <v>1.3183999999999999E-7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1.9384999999999999E-2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>6.9388999999999996E-4</v>
+      </c>
+      <c r="D4" s="35">
+        <v>2.018E-2</v>
+      </c>
+      <c r="E4" s="25">
+        <v>2.3027E-3</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1.4491E-2</v>
+      </c>
+      <c r="G4" s="5">
+        <v>9.9600999999999995E-2</v>
+      </c>
+      <c r="H4" s="25">
+        <v>7.0505999999999996E-8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5">
+        <v>9.6880000000000004E-3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1.7508000000000001E-4</v>
+      </c>
+      <c r="D5" s="35">
+        <v>1.0274999999999999E-2</v>
+      </c>
+      <c r="E5" s="25">
+        <v>2.238E-3</v>
+      </c>
+      <c r="F5" s="5">
+        <v>5.2649999999999997E-3</v>
+      </c>
+      <c r="G5" s="5">
+        <v>4.9933999999999999E-2</v>
+      </c>
+      <c r="H5" s="25">
+        <v>5.2094000000000003E-8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="5">
+        <v>4.8434000000000003E-3</v>
+      </c>
+      <c r="C6" s="5">
+        <v>4.3985E-5</v>
+      </c>
+      <c r="D6" s="35">
+        <v>5.4660999999999998E-3</v>
+      </c>
+      <c r="E6" s="25">
+        <v>2.1749999999999999E-3</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1.8975000000000001E-3</v>
+      </c>
+      <c r="G6" s="5">
+        <v>2.5114999999999998E-2</v>
+      </c>
+      <c r="H6" s="25">
+        <v>5.8980999999999997E-8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B8" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="30"/>
+      <c r="F8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="8">
+        <f t="shared" ref="B9:H12" si="0">B2/B3</f>
+        <v>2.0126425831037409</v>
+      </c>
+      <c r="C9" s="8">
+        <f t="shared" si="0"/>
+        <v>3.8954660411245099</v>
+      </c>
+      <c r="D9" s="9">
+        <f t="shared" si="0"/>
+        <v>1.9889351309592045</v>
+      </c>
+      <c r="E9" s="9">
+        <f t="shared" si="0"/>
+        <v>2.438168867890762</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="0"/>
+        <v>2.6974732529023444</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9782762096774194</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" si="0"/>
+        <v>2.0495297330097086</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="8">
+        <f t="shared" si="0"/>
+        <v>2.003456280629353</v>
+      </c>
+      <c r="C10" s="8">
+        <f t="shared" si="0"/>
+        <v>3.9318912219516062</v>
+      </c>
+      <c r="D10" s="9">
+        <f t="shared" si="0"/>
+        <v>1.9884539147670963</v>
+      </c>
+      <c r="E10" s="9">
+        <f t="shared" si="0"/>
+        <v>1.2133148043600992</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="0"/>
+        <v>2.7283831343592575</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9919478720093171</v>
+      </c>
+      <c r="H10" s="9">
+        <f t="shared" si="0"/>
+        <v>1.869911780557683</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="8">
+        <f t="shared" si="0"/>
+        <v>2.0009289843104869</v>
+      </c>
+      <c r="C11" s="8">
+        <f t="shared" si="0"/>
+        <v>3.9632739319168375</v>
+      </c>
+      <c r="D11" s="9">
+        <f t="shared" si="0"/>
+        <v>1.9639902676399028</v>
+      </c>
+      <c r="E11" s="9">
+        <f t="shared" si="0"/>
+        <v>1.0289097408400358</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="0"/>
+        <v>2.752326685660019</v>
+      </c>
+      <c r="G11" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9946529418832859</v>
+      </c>
+      <c r="H11" s="9">
+        <f t="shared" si="0"/>
+        <v>1.3534380158943446</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="8">
+        <f t="shared" si="0"/>
+        <v>2.0002477598381301</v>
+      </c>
+      <c r="C12" s="8">
+        <f t="shared" si="0"/>
+        <v>3.980447879959077</v>
+      </c>
+      <c r="D12" s="9">
+        <f t="shared" si="0"/>
+        <v>1.8797680247342712</v>
+      </c>
+      <c r="E12" s="9">
+        <f t="shared" si="0"/>
+        <v>1.0289655172413794</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="0"/>
+        <v>2.7747035573122525</v>
+      </c>
+      <c r="G12" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9882142146127812</v>
+      </c>
+      <c r="H12" s="9">
+        <f t="shared" si="0"/>
+        <v>0.88323358369644467</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="30"/>
+      <c r="F14" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="12">
+        <f>LN(B9)/LN(2)</f>
+        <v>1.0090909927428287</v>
+      </c>
+      <c r="C15" s="12">
+        <f t="shared" ref="C15:H15" si="1">LN(C9)/LN(2)</f>
+        <v>1.9617959380426211</v>
+      </c>
+      <c r="D15" s="36">
+        <f t="shared" si="1"/>
+        <v>0.991996223497146</v>
+      </c>
+      <c r="E15" s="26">
+        <f t="shared" si="1"/>
+        <v>1.2857980506634688</v>
+      </c>
+      <c r="F15" s="12">
+        <f t="shared" si="1"/>
+        <v>1.431608654580222</v>
+      </c>
+      <c r="G15" s="12">
+        <f t="shared" si="1"/>
+        <v>0.98424387124968071</v>
+      </c>
+      <c r="H15" s="26">
+        <f t="shared" si="1"/>
+        <v>1.0352929196406628</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B16" s="12">
+        <f t="shared" ref="B16:H18" si="2">LN(B10)/LN(2)</f>
+        <v>1.0024910276586962</v>
+      </c>
+      <c r="C16" s="12">
+        <f t="shared" si="2"/>
+        <v>1.9752234092365344</v>
+      </c>
+      <c r="D16" s="36">
+        <f t="shared" si="2"/>
+        <v>0.99164712603177074</v>
+      </c>
+      <c r="E16" s="26">
+        <f t="shared" si="2"/>
+        <v>0.27895391794849311</v>
+      </c>
+      <c r="F16" s="12">
+        <f t="shared" si="2"/>
+        <v>1.4480462496511175</v>
+      </c>
+      <c r="G16" s="12">
+        <f t="shared" si="2"/>
+        <v>0.99417989350154023</v>
+      </c>
+      <c r="H16" s="26">
+        <f t="shared" si="2"/>
+        <v>0.9029702076775219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B17" s="12">
+        <f t="shared" si="2"/>
+        <v>1.0006699649442139</v>
+      </c>
+      <c r="C17" s="12">
+        <f t="shared" si="2"/>
+        <v>1.9866926863470287</v>
+      </c>
+      <c r="D17" s="36">
+        <f t="shared" si="2"/>
+        <v>0.97378778053731208</v>
+      </c>
+      <c r="E17" s="26">
+        <f t="shared" si="2"/>
+        <v>4.1116430090186999E-2</v>
+      </c>
+      <c r="F17" s="12">
+        <f t="shared" si="2"/>
+        <v>1.4606517199708773</v>
+      </c>
+      <c r="G17" s="12">
+        <f t="shared" si="2"/>
+        <v>0.99613774766028784</v>
+      </c>
+      <c r="H17" s="26">
+        <f t="shared" si="2"/>
+        <v>0.43662881720968189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="14"/>
+      <c r="B18" s="12">
+        <f t="shared" si="2"/>
+        <v>1.000178709875847</v>
+      </c>
+      <c r="C18" s="12">
+        <f t="shared" si="2"/>
+        <v>1.9929307719352254</v>
+      </c>
+      <c r="D18" s="36">
+        <f t="shared" si="2"/>
+        <v>0.91055463519291413</v>
+      </c>
+      <c r="E18" s="26">
+        <f t="shared" si="2"/>
+        <v>4.1194635352941107E-2</v>
+      </c>
+      <c r="F18" s="12">
+        <f t="shared" si="2"/>
+        <v>1.4723336456102503</v>
+      </c>
+      <c r="G18" s="12">
+        <f t="shared" si="2"/>
+        <v>0.99147320444057996</v>
+      </c>
+      <c r="H18" s="26">
+        <f t="shared" si="2"/>
+        <v>-0.17913306530845982</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H19" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
@@ -1547,10 +2087,10 @@
       <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="24" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="16" t="s">
@@ -1559,7 +2099,7 @@
       <c r="G1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="24" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1573,11 +2113,11 @@
       <c r="C2" s="5">
         <v>1.0628E-2</v>
       </c>
-      <c r="D2" s="18">
-        <v>7.9810000000000006E-2</v>
-      </c>
-      <c r="E2" s="30">
-        <v>6.8120000000000003E-3</v>
+      <c r="D2" s="35">
+        <v>7.9811000000000007E-2</v>
+      </c>
+      <c r="E2" s="25">
+        <v>6.8148000000000002E-3</v>
       </c>
       <c r="F2" s="5">
         <v>0.10664999999999999</v>
@@ -1585,8 +2125,8 @@
       <c r="G2" s="5">
         <v>0.39249000000000001</v>
       </c>
-      <c r="H2" s="30">
-        <v>2.7020999999999998E-7</v>
+      <c r="H2" s="25">
+        <v>2.7022000000000002E-10</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -1599,11 +2139,11 @@
       <c r="C3" s="5">
         <v>2.7282999999999999E-3</v>
       </c>
-      <c r="D3" s="18">
-        <v>4.0127000000000003E-2</v>
-      </c>
-      <c r="E3" s="30">
-        <v>2.7939000000000002E-3</v>
+      <c r="D3" s="35">
+        <v>4.0127999999999997E-2</v>
+      </c>
+      <c r="E3" s="25">
+        <v>2.8070999999999999E-3</v>
       </c>
       <c r="F3" s="5">
         <v>3.9537000000000003E-2</v>
@@ -1611,8 +2151,8 @@
       <c r="G3" s="5">
         <v>0.19839999999999999</v>
       </c>
-      <c r="H3" s="30">
-        <v>1.3183999999999999E-7</v>
+      <c r="H3" s="25">
+        <v>1.3187000000000001E-10</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -1625,20 +2165,20 @@
       <c r="C4" s="5">
         <v>6.9388999999999996E-4</v>
       </c>
-      <c r="D4" s="18">
-        <v>2.018E-2</v>
-      </c>
-      <c r="E4" s="30">
-        <v>2.3027E-3</v>
+      <c r="D4" s="35">
+        <v>2.0184000000000001E-2</v>
+      </c>
+      <c r="E4" s="25">
+        <v>2.3341999999999998E-3</v>
       </c>
       <c r="F4" s="5">
         <v>1.4491E-2</v>
       </c>
       <c r="G4" s="5">
-        <v>9.9600999999999995E-2</v>
-      </c>
-      <c r="H4" s="30">
-        <v>7.0505999999999996E-8</v>
+        <v>9.9602999999999997E-2</v>
+      </c>
+      <c r="H4" s="25">
+        <v>7.0682E-11</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -1651,51 +2191,65 @@
       <c r="C5" s="5">
         <v>1.7508000000000001E-4</v>
       </c>
-      <c r="D5" s="18">
-        <v>1.0274999999999999E-2</v>
-      </c>
-      <c r="E5" s="24">
-        <v>2.238E-3</v>
+      <c r="D5" s="35">
+        <v>1.0289E-2</v>
+      </c>
+      <c r="E5" s="25">
+        <v>2.3013E-3</v>
       </c>
       <c r="F5" s="5">
         <v>5.2649999999999997E-3</v>
       </c>
       <c r="G5" s="5">
-        <v>4.9933999999999999E-2</v>
-      </c>
-      <c r="H5" s="30">
-        <v>5.2094000000000003E-8</v>
+        <v>4.9938999999999997E-2</v>
+      </c>
+      <c r="H5" s="25">
+        <v>5.3026999999999997E-11</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="30"/>
+      <c r="B6" s="5">
+        <v>4.8434000000000003E-3</v>
+      </c>
+      <c r="C6" s="5">
+        <v>4.3985E-5</v>
+      </c>
+      <c r="D6" s="35">
+        <v>5.5167000000000002E-3</v>
+      </c>
+      <c r="E6" s="25">
+        <v>2.2991999999999999E-3</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1.8975000000000001E-3</v>
+      </c>
+      <c r="G6" s="5">
+        <v>2.5137E-2</v>
+      </c>
+      <c r="H6" s="25">
+        <v>6.2116000000000006E-11</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="E7" s="28"/>
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="27" t="s">
+      <c r="C8" s="29"/>
+      <c r="D8" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="27"/>
+      <c r="E8" s="30"/>
       <c r="F8" s="16" t="s">
         <v>13</v>
       </c>
@@ -1720,11 +2274,11 @@
       </c>
       <c r="D9" s="9">
         <f t="shared" si="0"/>
-        <v>1.9889351309592045</v>
+        <v>1.9889104864433815</v>
       </c>
       <c r="E9" s="9">
         <f t="shared" si="0"/>
-        <v>2.438168867890762</v>
+        <v>2.4277011862776532</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" si="0"/>
@@ -1736,7 +2290,7 @@
       </c>
       <c r="H9" s="9">
         <f t="shared" si="0"/>
-        <v>2.0495297330097086</v>
+        <v>2.049139303859862</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -1753,11 +2307,11 @@
       </c>
       <c r="D10" s="9">
         <f t="shared" si="0"/>
-        <v>1.9884539147670963</v>
+        <v>1.9881093935790723</v>
       </c>
       <c r="E10" s="9">
         <f t="shared" si="0"/>
-        <v>1.2133148043600992</v>
+        <v>1.2025961785622483</v>
       </c>
       <c r="F10" s="8">
         <f t="shared" si="0"/>
@@ -1765,11 +2319,11 @@
       </c>
       <c r="G10" s="8">
         <f t="shared" si="0"/>
-        <v>1.9919478720093171</v>
+        <v>1.9919078742608154</v>
       </c>
       <c r="H10" s="9">
         <f t="shared" si="0"/>
-        <v>1.869911780557683</v>
+        <v>1.8656800882827311</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -1786,11 +2340,11 @@
       </c>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
-        <v>1.9639902676399028</v>
+        <v>1.9617066770337255</v>
       </c>
       <c r="E11" s="9">
         <f t="shared" si="0"/>
-        <v>1.0289097408400358</v>
+        <v>1.0142962673271627</v>
       </c>
       <c r="F11" s="8">
         <f t="shared" si="0"/>
@@ -1798,44 +2352,44 @@
       </c>
       <c r="G11" s="8">
         <f t="shared" si="0"/>
-        <v>1.9946529418832859</v>
+        <v>1.9944932818038006</v>
       </c>
       <c r="H11" s="9">
         <f t="shared" si="0"/>
-        <v>1.3534380158943446</v>
+        <v>1.3329435947724744</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C12" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D12" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E12" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F12" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G12" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H12" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B12" s="8">
+        <f t="shared" si="0"/>
+        <v>2.0002477598381301</v>
+      </c>
+      <c r="C12" s="8">
+        <f t="shared" si="0"/>
+        <v>3.980447879959077</v>
+      </c>
+      <c r="D12" s="9">
+        <f t="shared" si="0"/>
+        <v>1.8650642594304565</v>
+      </c>
+      <c r="E12" s="9">
+        <f t="shared" si="0"/>
+        <v>1.0009133611691023</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="0"/>
+        <v>2.7747035573122525</v>
+      </c>
+      <c r="G12" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9866730317858137</v>
+      </c>
+      <c r="H12" s="9">
+        <f t="shared" si="0"/>
+        <v>0.8536769914353789</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -1847,14 +2401,14 @@
       <c r="A14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="27" t="s">
+      <c r="C14" s="29"/>
+      <c r="D14" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="27"/>
+      <c r="E14" s="30"/>
       <c r="F14" s="16" t="s">
         <v>18</v>
       </c>
@@ -1877,13 +2431,13 @@
         <f t="shared" ref="C15:H15" si="1">LN(C9)/LN(2)</f>
         <v>1.9617959380426211</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="36">
         <f t="shared" si="1"/>
-        <v>0.991996223497146</v>
-      </c>
-      <c r="E15" s="31">
+        <v>0.99197834722733425</v>
+      </c>
+      <c r="E15" s="26">
         <f t="shared" si="1"/>
-        <v>1.2857980506634688</v>
+        <v>1.2795908583295534</v>
       </c>
       <c r="F15" s="12">
         <f t="shared" si="1"/>
@@ -1893,9 +2447,9 @@
         <f t="shared" si="1"/>
         <v>0.98424387124968071</v>
       </c>
-      <c r="H15" s="31">
+      <c r="H15" s="26">
         <f t="shared" si="1"/>
-        <v>1.0352929196406628</v>
+        <v>1.0350180644645368</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
@@ -1907,13 +2461,13 @@
         <f t="shared" si="2"/>
         <v>1.9752234092365344</v>
       </c>
-      <c r="D16" s="19">
-        <f t="shared" si="2"/>
-        <v>0.99164712603177074</v>
-      </c>
-      <c r="E16" s="31">
-        <f t="shared" si="2"/>
-        <v>0.27895391794849311</v>
+      <c r="D16" s="36">
+        <f t="shared" si="2"/>
+        <v>0.99139714182573846</v>
+      </c>
+      <c r="E16" s="26">
+        <f t="shared" si="2"/>
+        <v>0.26615227926440232</v>
       </c>
       <c r="F16" s="12">
         <f t="shared" si="2"/>
@@ -1921,11 +2475,11 @@
       </c>
       <c r="G16" s="12">
         <f t="shared" si="2"/>
-        <v>0.99417989350154023</v>
-      </c>
-      <c r="H16" s="31">
-        <f t="shared" si="2"/>
-        <v>0.9029702076775219</v>
+        <v>0.99415092430331264</v>
+      </c>
+      <c r="H16" s="26">
+        <f t="shared" si="2"/>
+        <v>0.899701625730984</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
@@ -1937,13 +2491,13 @@
         <f t="shared" si="2"/>
         <v>1.9866926863470287</v>
       </c>
-      <c r="D17" s="19">
-        <f t="shared" si="2"/>
-        <v>0.97378778053731208</v>
-      </c>
-      <c r="E17" s="31">
-        <f t="shared" si="2"/>
-        <v>4.1116430090186999E-2</v>
+      <c r="D17" s="36">
+        <f t="shared" si="2"/>
+        <v>0.97210933960772294</v>
+      </c>
+      <c r="E17" s="26">
+        <f t="shared" si="2"/>
+        <v>2.0479112868100557E-2</v>
       </c>
       <c r="F17" s="12">
         <f t="shared" si="2"/>
@@ -1951,529 +2505,46 @@
       </c>
       <c r="G17" s="12">
         <f t="shared" si="2"/>
-        <v>0.99613774766028784</v>
-      </c>
-      <c r="H17" s="31">
-        <f t="shared" si="2"/>
-        <v>0.43662881720968189</v>
+        <v>0.99602226389904758</v>
+      </c>
+      <c r="H17" s="26">
+        <f t="shared" si="2"/>
+        <v>0.41461573221701165</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="14"/>
-      <c r="B18" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C18" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D18" s="19" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E18" s="31" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F18" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G18" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H18" s="31" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="B18" s="12">
+        <f t="shared" si="2"/>
+        <v>1.000178709875847</v>
+      </c>
+      <c r="C18" s="12">
+        <f t="shared" si="2"/>
+        <v>1.9929307719352254</v>
+      </c>
+      <c r="D18" s="36">
+        <f t="shared" si="2"/>
+        <v>0.89922533834354768</v>
+      </c>
+      <c r="E18" s="26">
+        <f t="shared" si="2"/>
+        <v>1.3171002266248592E-3</v>
+      </c>
+      <c r="F18" s="12">
+        <f t="shared" si="2"/>
+        <v>1.4723336456102503</v>
+      </c>
+      <c r="G18" s="12">
+        <f t="shared" si="2"/>
+        <v>0.99035445223697749</v>
+      </c>
+      <c r="H18" s="26">
+        <f t="shared" si="2"/>
+        <v>-0.22823779905183192</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="H19" s="25"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.54296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="5">
-        <v>7.8164999999999998E-2</v>
-      </c>
-      <c r="C2" s="5">
-        <v>1.0628E-2</v>
-      </c>
-      <c r="D2" s="18">
-        <v>7.9811000000000007E-2</v>
-      </c>
-      <c r="E2" s="30">
-        <v>6.8148000000000002E-3</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0.10664999999999999</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0.39249000000000001</v>
-      </c>
-      <c r="H2" s="30">
-        <v>2.7022000000000002E-10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="5">
-        <v>3.8837000000000003E-2</v>
-      </c>
-      <c r="C3" s="5">
-        <v>2.7282999999999999E-3</v>
-      </c>
-      <c r="D3" s="18">
-        <v>4.0127999999999997E-2</v>
-      </c>
-      <c r="E3" s="30">
-        <v>2.8070999999999999E-3</v>
-      </c>
-      <c r="F3" s="5">
-        <v>3.9537000000000003E-2</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0.19839999999999999</v>
-      </c>
-      <c r="H3" s="30">
-        <v>1.3187000000000001E-10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1.9384999999999999E-2</v>
-      </c>
-      <c r="C4" s="5">
-        <v>6.9388999999999996E-4</v>
-      </c>
-      <c r="D4" s="18">
-        <v>2.0184000000000001E-2</v>
-      </c>
-      <c r="E4" s="30">
-        <v>2.3341999999999998E-3</v>
-      </c>
-      <c r="F4" s="5">
-        <v>1.4491E-2</v>
-      </c>
-      <c r="G4" s="5">
-        <v>9.9602999999999997E-2</v>
-      </c>
-      <c r="H4" s="30">
-        <v>7.0682E-11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="5">
-        <v>9.6880000000000004E-3</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1.7508000000000001E-4</v>
-      </c>
-      <c r="D5" s="18">
-        <v>1.0289E-2</v>
-      </c>
-      <c r="E5" s="30">
-        <v>2.3013E-3</v>
-      </c>
-      <c r="F5" s="5">
-        <v>5.2649999999999997E-3</v>
-      </c>
-      <c r="G5" s="5">
-        <v>4.9938999999999997E-2</v>
-      </c>
-      <c r="H5" s="30">
-        <v>5.3026999999999997E-11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="30"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="33"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B8" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="8">
-        <f t="shared" ref="B9:H12" si="0">B2/B3</f>
-        <v>2.0126425831037409</v>
-      </c>
-      <c r="C9" s="8">
-        <f t="shared" si="0"/>
-        <v>3.8954660411245099</v>
-      </c>
-      <c r="D9" s="9">
-        <f t="shared" si="0"/>
-        <v>1.9889104864433815</v>
-      </c>
-      <c r="E9" s="9">
-        <f t="shared" si="0"/>
-        <v>2.4277011862776532</v>
-      </c>
-      <c r="F9" s="8">
-        <f t="shared" si="0"/>
-        <v>2.6974732529023444</v>
-      </c>
-      <c r="G9" s="8">
-        <f t="shared" si="0"/>
-        <v>1.9782762096774194</v>
-      </c>
-      <c r="H9" s="9">
-        <f t="shared" si="0"/>
-        <v>2.049139303859862</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="8">
-        <f t="shared" si="0"/>
-        <v>2.003456280629353</v>
-      </c>
-      <c r="C10" s="8">
-        <f t="shared" si="0"/>
-        <v>3.9318912219516062</v>
-      </c>
-      <c r="D10" s="9">
-        <f t="shared" si="0"/>
-        <v>1.9881093935790723</v>
-      </c>
-      <c r="E10" s="9">
-        <f t="shared" si="0"/>
-        <v>1.2025961785622483</v>
-      </c>
-      <c r="F10" s="8">
-        <f t="shared" si="0"/>
-        <v>2.7283831343592575</v>
-      </c>
-      <c r="G10" s="8">
-        <f t="shared" si="0"/>
-        <v>1.9919078742608154</v>
-      </c>
-      <c r="H10" s="9">
-        <f t="shared" si="0"/>
-        <v>1.8656800882827311</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="8">
-        <f t="shared" si="0"/>
-        <v>2.0009289843104869</v>
-      </c>
-      <c r="C11" s="8">
-        <f t="shared" si="0"/>
-        <v>3.9632739319168375</v>
-      </c>
-      <c r="D11" s="9">
-        <f t="shared" si="0"/>
-        <v>1.9617066770337255</v>
-      </c>
-      <c r="E11" s="9">
-        <f t="shared" si="0"/>
-        <v>1.0142962673271627</v>
-      </c>
-      <c r="F11" s="8">
-        <f t="shared" si="0"/>
-        <v>2.752326685660019</v>
-      </c>
-      <c r="G11" s="8">
-        <f t="shared" si="0"/>
-        <v>1.9944932818038006</v>
-      </c>
-      <c r="H11" s="9">
-        <f t="shared" si="0"/>
-        <v>1.3329435947724744</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C12" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D12" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E12" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F12" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G12" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H12" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="12">
-        <f>LN(B9)/LN(2)</f>
-        <v>1.0090909927428287</v>
-      </c>
-      <c r="C15" s="12">
-        <f t="shared" ref="C15:H15" si="1">LN(C9)/LN(2)</f>
-        <v>1.9617959380426211</v>
-      </c>
-      <c r="D15" s="19">
-        <f t="shared" si="1"/>
-        <v>0.99197834722733425</v>
-      </c>
-      <c r="E15" s="31">
-        <f t="shared" si="1"/>
-        <v>1.2795908583295534</v>
-      </c>
-      <c r="F15" s="12">
-        <f t="shared" si="1"/>
-        <v>1.431608654580222</v>
-      </c>
-      <c r="G15" s="12">
-        <f t="shared" si="1"/>
-        <v>0.98424387124968071</v>
-      </c>
-      <c r="H15" s="31">
-        <f t="shared" si="1"/>
-        <v>1.0350180644645368</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B16" s="12">
-        <f t="shared" ref="B16:H18" si="2">LN(B10)/LN(2)</f>
-        <v>1.0024910276586962</v>
-      </c>
-      <c r="C16" s="12">
-        <f t="shared" si="2"/>
-        <v>1.9752234092365344</v>
-      </c>
-      <c r="D16" s="19">
-        <f t="shared" si="2"/>
-        <v>0.99139714182573846</v>
-      </c>
-      <c r="E16" s="31">
-        <f t="shared" si="2"/>
-        <v>0.26615227926440232</v>
-      </c>
-      <c r="F16" s="12">
-        <f t="shared" si="2"/>
-        <v>1.4480462496511175</v>
-      </c>
-      <c r="G16" s="12">
-        <f t="shared" si="2"/>
-        <v>0.99415092430331264</v>
-      </c>
-      <c r="H16" s="31">
-        <f t="shared" si="2"/>
-        <v>0.899701625730984</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B17" s="12">
-        <f t="shared" si="2"/>
-        <v>1.0006699649442139</v>
-      </c>
-      <c r="C17" s="12">
-        <f t="shared" si="2"/>
-        <v>1.9866926863470287</v>
-      </c>
-      <c r="D17" s="19">
-        <f t="shared" si="2"/>
-        <v>0.97210933960772294</v>
-      </c>
-      <c r="E17" s="31">
-        <f t="shared" si="2"/>
-        <v>2.0479112868100557E-2</v>
-      </c>
-      <c r="F17" s="12">
-        <f t="shared" si="2"/>
-        <v>1.4606517199708773</v>
-      </c>
-      <c r="G17" s="12">
-        <f t="shared" si="2"/>
-        <v>0.99602226389904758</v>
-      </c>
-      <c r="H17" s="31">
-        <f t="shared" si="2"/>
-        <v>0.41461573221701165</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="14"/>
-      <c r="B18" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C18" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D18" s="19" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E18" s="31" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F18" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G18" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H18" s="31" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D19" s="32"/>
+      <c r="D19" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2512,10 +2583,10 @@
       <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="24" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="16" t="s">
@@ -2524,7 +2595,7 @@
       <c r="G1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="24" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2538,10 +2609,10 @@
       <c r="C2" s="5">
         <v>1.0628E-2</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="35">
         <v>7.9811000000000007E-2</v>
       </c>
-      <c r="E2" s="30">
+      <c r="E2" s="25">
         <v>6.8148000000000002E-3</v>
       </c>
       <c r="F2" s="5">
@@ -2550,7 +2621,7 @@
       <c r="G2" s="5">
         <v>0.39249000000000001</v>
       </c>
-      <c r="H2" s="30">
+      <c r="H2" s="25">
         <v>2.7021999999999998E-13</v>
       </c>
     </row>
@@ -2564,10 +2635,10 @@
       <c r="C3" s="5">
         <v>2.7282999999999999E-3</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="35">
         <v>4.0127999999999997E-2</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="25">
         <v>2.8070999999999999E-3</v>
       </c>
       <c r="F3" s="5">
@@ -2576,7 +2647,7 @@
       <c r="G3" s="5">
         <v>0.19839999999999999</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3" s="25">
         <v>1.3187E-13</v>
       </c>
     </row>
@@ -2590,10 +2661,10 @@
       <c r="C4" s="5">
         <v>6.9388999999999996E-4</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="35">
         <v>2.0184000000000001E-2</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="25">
         <v>2.3343000000000001E-3</v>
       </c>
       <c r="F4" s="5">
@@ -2602,7 +2673,7 @@
       <c r="G4" s="5">
         <v>9.9602999999999997E-2</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H4" s="25">
         <v>7.0682999999999998E-14</v>
       </c>
     </row>
@@ -2616,10 +2687,10 @@
       <c r="C5" s="5">
         <v>1.7508000000000001E-4</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="35">
         <v>1.0289E-2</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="25">
         <v>2.3013999999999999E-3</v>
       </c>
       <c r="F5" s="5">
@@ -2628,7 +2699,7 @@
       <c r="G5" s="5">
         <v>4.9938999999999997E-2</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="25">
         <v>5.3028000000000003E-14</v>
       </c>
     </row>
@@ -2636,13 +2707,27 @@
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="30"/>
+      <c r="B6" s="5">
+        <v>4.8434000000000003E-3</v>
+      </c>
+      <c r="C6" s="5">
+        <v>4.3985E-5</v>
+      </c>
+      <c r="D6" s="35">
+        <v>5.5167999999999997E-3</v>
+      </c>
+      <c r="E6" s="25">
+        <v>2.2993000000000002E-3</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1.8975000000000001E-3</v>
+      </c>
+      <c r="G6" s="5">
+        <v>2.5137E-2</v>
+      </c>
+      <c r="H6" s="25">
+        <v>6.2118999999999995E-14</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -2650,17 +2735,17 @@
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="7"/>
-      <c r="H7" s="33"/>
+      <c r="H7" s="28"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="27" t="s">
+      <c r="C8" s="29"/>
+      <c r="D8" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="27"/>
+      <c r="E8" s="30"/>
       <c r="F8" s="16" t="s">
         <v>13</v>
       </c>
@@ -2774,33 +2859,33 @@
       <c r="A12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C12" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D12" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E12" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F12" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G12" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H12" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B12" s="8">
+        <f t="shared" si="0"/>
+        <v>2.0002477598381301</v>
+      </c>
+      <c r="C12" s="8">
+        <f t="shared" si="0"/>
+        <v>3.980447879959077</v>
+      </c>
+      <c r="D12" s="9">
+        <f t="shared" si="0"/>
+        <v>1.8650304524361949</v>
+      </c>
+      <c r="E12" s="9">
+        <f t="shared" si="0"/>
+        <v>1.0009133214456571</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="0"/>
+        <v>2.7747035573122525</v>
+      </c>
+      <c r="G12" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9866730317858137</v>
+      </c>
+      <c r="H12" s="9">
+        <f t="shared" si="0"/>
+        <v>0.85365186174922336</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -2812,14 +2897,14 @@
       <c r="A14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="27" t="s">
+      <c r="C14" s="29"/>
+      <c r="D14" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="27"/>
+      <c r="E14" s="30"/>
       <c r="F14" s="16" t="s">
         <v>18</v>
       </c>
@@ -2842,11 +2927,11 @@
         <f t="shared" ref="C15:H15" si="1">LN(C9)/LN(2)</f>
         <v>1.9617959380426211</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="36">
         <f t="shared" si="1"/>
         <v>0.99197834722733425</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="26">
         <f t="shared" si="1"/>
         <v>1.2795908583295534</v>
       </c>
@@ -2858,7 +2943,7 @@
         <f t="shared" si="1"/>
         <v>0.98424387124968071</v>
       </c>
-      <c r="H15" s="31">
+      <c r="H15" s="26">
         <f t="shared" si="1"/>
         <v>1.0350180644645368</v>
       </c>
@@ -2872,11 +2957,11 @@
         <f t="shared" si="2"/>
         <v>1.9752234092365344</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="36">
         <f t="shared" si="2"/>
         <v>0.99139714182573846</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="26">
         <f t="shared" si="2"/>
         <v>0.26609047375766076</v>
       </c>
@@ -2888,7 +2973,7 @@
         <f t="shared" si="2"/>
         <v>0.99415092430331264</v>
       </c>
-      <c r="H16" s="31">
+      <c r="H16" s="26">
         <f t="shared" si="2"/>
         <v>0.89968121480832397</v>
       </c>
@@ -2902,11 +2987,11 @@
         <f t="shared" si="2"/>
         <v>1.9866926863470287</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="36">
         <f t="shared" si="2"/>
         <v>0.97210933960772294</v>
       </c>
-      <c r="E17" s="31">
+      <c r="E17" s="26">
         <f t="shared" si="2"/>
         <v>2.04782292992511E-2</v>
       </c>
@@ -2918,40 +3003,40 @@
         <f t="shared" si="2"/>
         <v>0.99602226389904758</v>
       </c>
-      <c r="H17" s="31">
+      <c r="H17" s="26">
         <f t="shared" si="2"/>
         <v>0.41460893659512527</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="14"/>
-      <c r="B18" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C18" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D18" s="19" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E18" s="31" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F18" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G18" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H18" s="31" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="B18" s="12">
+        <f t="shared" si="2"/>
+        <v>1.000178709875847</v>
+      </c>
+      <c r="C18" s="12">
+        <f t="shared" si="2"/>
+        <v>1.9929307719352254</v>
+      </c>
+      <c r="D18" s="36">
+        <f t="shared" si="2"/>
+        <v>0.89919918716684188</v>
+      </c>
+      <c r="E18" s="26">
+        <f t="shared" si="2"/>
+        <v>1.3170429701022095E-3</v>
+      </c>
+      <c r="F18" s="12">
+        <f t="shared" si="2"/>
+        <v>1.4723336456102503</v>
+      </c>
+      <c r="G18" s="12">
+        <f t="shared" si="2"/>
+        <v>0.99035445223697749</v>
+      </c>
+      <c r="H18" s="26">
+        <f t="shared" si="2"/>
+        <v>-0.22828026828502115</v>
       </c>
     </row>
   </sheetData>
